--- a/ru/downloads/data-excel/3.3.3.xlsx
+++ b/ru/downloads/data-excel/3.3.3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="37">
   <si>
     <t>Кыргызская Республика</t>
   </si>
@@ -680,9 +680,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -690,7 +692,7 @@
     <col min="4" max="4" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -712,7 +714,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -728,7 +730,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
@@ -777,8 +779,11 @@
       <c r="P3" s="23">
         <v>2019</v>
       </c>
+      <c r="Q3" s="23">
+        <v>2020</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>13</v>
       </c>
@@ -827,8 +832,11 @@
       <c r="P4" s="25">
         <v>1.5814989921897674E-4</v>
       </c>
+      <c r="Q4" s="27" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>15</v>
       </c>
@@ -875,8 +883,11 @@
       <c r="P5" s="27" t="s">
         <v>1</v>
       </c>
+      <c r="Q5" s="27" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>17</v>
       </c>
@@ -923,8 +934,11 @@
       <c r="P6" s="27" t="s">
         <v>1</v>
       </c>
+      <c r="Q6" s="27" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>18</v>
       </c>
@@ -971,8 +985,11 @@
       <c r="P7" s="27" t="s">
         <v>1</v>
       </c>
+      <c r="Q7" s="27" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>19</v>
       </c>
@@ -1019,8 +1036,11 @@
       <c r="P8" s="27" t="s">
         <v>1</v>
       </c>
+      <c r="Q8" s="27" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>21</v>
       </c>
@@ -1067,8 +1087,11 @@
       <c r="P9" s="27" t="s">
         <v>1</v>
       </c>
+      <c r="Q9" s="27" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>23</v>
       </c>
@@ -1115,8 +1138,11 @@
       <c r="P10" s="27" t="s">
         <v>1</v>
       </c>
+      <c r="Q10" s="27" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>25</v>
       </c>
@@ -1163,8 +1189,11 @@
       <c r="P11" s="27">
         <v>9.6100251782659671E-2</v>
       </c>
+      <c r="Q11" s="27" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>27</v>
       </c>
@@ -1213,8 +1242,11 @@
       <c r="P12" s="27" t="s">
         <v>1</v>
       </c>
+      <c r="Q12" s="27" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>29</v>
       </c>
@@ -1261,8 +1293,11 @@
       <c r="P13" s="29" t="s">
         <v>1</v>
       </c>
+      <c r="Q13" s="29" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>

--- a/ru/downloads/data-excel/3.3.3.xlsx
+++ b/ru/downloads/data-excel/3.3.3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="37">
   <si>
     <t>Кыргызская Республика</t>
   </si>
@@ -280,7 +280,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -373,6 +373,7 @@
     <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -680,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,7 +693,7 @@
     <col min="4" max="4" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -714,7 +715,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -730,7 +731,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
@@ -782,8 +783,11 @@
       <c r="Q3" s="23">
         <v>2020</v>
       </c>
+      <c r="R3" s="23">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>13</v>
       </c>
@@ -835,8 +839,11 @@
       <c r="Q4" s="27" t="s">
         <v>1</v>
       </c>
+      <c r="R4" s="25">
+        <v>2.9886145739191973E-4</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>15</v>
       </c>
@@ -886,8 +893,11 @@
       <c r="Q5" s="27" t="s">
         <v>1</v>
       </c>
+      <c r="R5" s="27" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>17</v>
       </c>
@@ -937,8 +947,11 @@
       <c r="Q6" s="27" t="s">
         <v>1</v>
       </c>
+      <c r="R6" s="27" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>18</v>
       </c>
@@ -988,8 +1001,11 @@
       <c r="Q7" s="27" t="s">
         <v>1</v>
       </c>
+      <c r="R7" s="27" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>19</v>
       </c>
@@ -1039,8 +1055,11 @@
       <c r="Q8" s="27" t="s">
         <v>1</v>
       </c>
+      <c r="R8" s="27" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>21</v>
       </c>
@@ -1090,8 +1109,11 @@
       <c r="Q9" s="27" t="s">
         <v>1</v>
       </c>
+      <c r="R9" s="27" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>23</v>
       </c>
@@ -1141,8 +1163,11 @@
       <c r="Q10" s="27" t="s">
         <v>1</v>
       </c>
+      <c r="R10" s="27" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>25</v>
       </c>
@@ -1192,8 +1217,11 @@
       <c r="Q11" s="27" t="s">
         <v>1</v>
       </c>
+      <c r="R11" s="27" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>27</v>
       </c>
@@ -1245,8 +1273,11 @@
       <c r="Q12" s="27" t="s">
         <v>1</v>
       </c>
+      <c r="R12" s="32">
+        <v>1.8411781330637848E-3</v>
+      </c>
     </row>
-    <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>29</v>
       </c>
@@ -1296,8 +1327,11 @@
       <c r="Q13" s="29" t="s">
         <v>1</v>
       </c>
+      <c r="R13" s="29" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>

--- a/ru/downloads/data-excel/3.3.3.xlsx
+++ b/ru/downloads/data-excel/3.3.3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="37">
   <si>
     <t>Кыргызская Республика</t>
   </si>
@@ -280,7 +280,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -374,6 +374,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -681,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,7 +696,7 @@
     <col min="4" max="4" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -715,7 +718,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -731,7 +734,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
@@ -786,8 +789,11 @@
       <c r="R3" s="23">
         <v>2021</v>
       </c>
+      <c r="S3" s="23">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>13</v>
       </c>
@@ -842,8 +848,11 @@
       <c r="R4" s="25">
         <v>2.9886145739191973E-4</v>
       </c>
+      <c r="S4" s="33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>15</v>
       </c>
@@ -896,8 +905,11 @@
       <c r="R5" s="27" t="s">
         <v>1</v>
       </c>
+      <c r="S5" s="27" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>17</v>
       </c>
@@ -950,8 +962,11 @@
       <c r="R6" s="27" t="s">
         <v>1</v>
       </c>
+      <c r="S6" s="27" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>18</v>
       </c>
@@ -1004,8 +1019,11 @@
       <c r="R7" s="27" t="s">
         <v>1</v>
       </c>
+      <c r="S7" s="27" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>19</v>
       </c>
@@ -1058,8 +1076,11 @@
       <c r="R8" s="27" t="s">
         <v>1</v>
       </c>
+      <c r="S8" s="27" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>21</v>
       </c>
@@ -1112,8 +1133,11 @@
       <c r="R9" s="27" t="s">
         <v>1</v>
       </c>
+      <c r="S9" s="27" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>23</v>
       </c>
@@ -1166,8 +1190,11 @@
       <c r="R10" s="27" t="s">
         <v>1</v>
       </c>
+      <c r="S10" s="27" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>25</v>
       </c>
@@ -1220,8 +1247,11 @@
       <c r="R11" s="27" t="s">
         <v>1</v>
       </c>
+      <c r="S11" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>27</v>
       </c>
@@ -1276,8 +1306,11 @@
       <c r="R12" s="32">
         <v>1.8411781330637848E-3</v>
       </c>
+      <c r="S12" s="32">
+        <v>1.8411781330637848E-3</v>
+      </c>
     </row>
-    <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>29</v>
       </c>
@@ -1330,8 +1363,11 @@
       <c r="R13" s="29" t="s">
         <v>1</v>
       </c>
+      <c r="S13" s="29" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>

--- a/ru/downloads/data-excel/3.3.3.xlsx
+++ b/ru/downloads/data-excel/3.3.3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="37">
   <si>
     <t>Кыргызская Республика</t>
   </si>
@@ -684,19 +684,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="35.85546875" customWidth="1"/>
+    <col min="1" max="3" width="33.42578125" customWidth="1"/>
     <col min="4" max="4" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -718,7 +716,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -734,7 +732,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
@@ -792,8 +790,11 @@
       <c r="S3" s="23">
         <v>2022</v>
       </c>
+      <c r="T3" s="23">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>13</v>
       </c>
@@ -851,8 +852,11 @@
       <c r="S4" s="33">
         <v>0</v>
       </c>
+      <c r="T4" s="33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>15</v>
       </c>
@@ -908,8 +912,11 @@
       <c r="S5" s="27" t="s">
         <v>1</v>
       </c>
+      <c r="T5" s="27" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>17</v>
       </c>
@@ -965,8 +972,11 @@
       <c r="S6" s="27" t="s">
         <v>1</v>
       </c>
+      <c r="T6" s="27" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>18</v>
       </c>
@@ -1022,8 +1032,11 @@
       <c r="S7" s="27" t="s">
         <v>1</v>
       </c>
+      <c r="T7" s="27" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>19</v>
       </c>
@@ -1079,8 +1092,11 @@
       <c r="S8" s="27" t="s">
         <v>1</v>
       </c>
+      <c r="T8" s="27" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>21</v>
       </c>
@@ -1136,8 +1152,11 @@
       <c r="S9" s="27" t="s">
         <v>1</v>
       </c>
+      <c r="T9" s="27" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>23</v>
       </c>
@@ -1193,8 +1212,11 @@
       <c r="S10" s="27" t="s">
         <v>1</v>
       </c>
+      <c r="T10" s="27" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>25</v>
       </c>
@@ -1250,8 +1272,11 @@
       <c r="S11" s="27">
         <v>0</v>
       </c>
+      <c r="T11" s="27" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>27</v>
       </c>
@@ -1309,8 +1334,11 @@
       <c r="S12" s="32">
         <v>1.8411781330637848E-3</v>
       </c>
+      <c r="T12" s="32">
+        <v>1.731197036190674E-3</v>
+      </c>
     </row>
-    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>29</v>
       </c>
@@ -1366,8 +1394,11 @@
       <c r="S13" s="29" t="s">
         <v>1</v>
       </c>
+      <c r="T13" s="29" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
